--- a/biology/Botanique/Scabieuse/Scabieuse.xlsx
+++ b/biology/Botanique/Scabieuse/Scabieuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On appelle en français « scabieuse » diverses espèces de plantes herbacées à fleurs. Leur inflorescence est le plus souvent un capitule. Il s'agit généralement d'espèces de la famille des Dipsacaceae selon la classification classique de Cronquist (1981)[1], des Caprifoliaceae selon la classification phylogénétique APG IV (2016)[2], ou plus rarement de la famille des Asteraceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On appelle en français « scabieuse » diverses espèces de plantes herbacées à fleurs. Leur inflorescence est le plus souvent un capitule. Il s'agit généralement d'espèces de la famille des Dipsacaceae selon la classification classique de Cronquist (1981), des Caprifoliaceae selon la classification phylogénétique APG IV (2016), ou plus rarement de la famille des Asteraceae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Scabiosa</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Scabiosa est le genre « véritable » de scabieuses. Il appartenait à la famille des Dipsacaceae, actuellement aux Caprifoliaceae. C'est notamment le genre de :
 Scabieuse colombaire, Scabiosa columbaria L.
@@ -546,9 +560,11 @@
           <t>Knautia arvensis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La scabieuse des champs[3], Knautia arvensis était une espèce de la famille des Dipsacaceae, intégrée maintenant au sein de celle des Caprifoliaceae[4]. C'est peut-être l'une des "scabieuses" les plus connues.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La scabieuse des champs, Knautia arvensis était une espèce de la famille des Dipsacaceae, intégrée maintenant au sein de celle des Caprifoliaceae. C'est peut-être l'une des "scabieuses" les plus connues.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Centaurea scabiosa</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Centaurée scabieuse, Centaurea scabiosa L., est une espèce de la famille des Asteraceae. Cette espèce, proche du bleuet des champs, également couramment appelée « scabieuse », elle est assez réputée.
 </t>
@@ -608,7 +626,9 @@
           <t>Cephalaria</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cephalaria était un genre de la famille des Dipsacaceae, actuellement des Caprifoliaceae. C'est notamment le genre de la :
 scabieuse des Alpes, Cephalaria alpina (L.) Schrad. ex Roem. &amp; Schult.
@@ -640,7 +660,9 @@
           <t>Autres scabieuses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'autres espèces prennent le nom de scabieuse :
 la scabieuse à feuilles de rue, Pycnocomon rutifolium (Vahl) Hoffmanns. &amp; Link (famille des Dipsacaceae, actuellement Caprifoliaceae) ;
@@ -673,7 +695,9 @@
           <t>Consommateurs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Les chenilles des papillons suivants (classés par famille) se nourrissent de scabieuse :
 Sphinx du pissenlit (Erebidae),
@@ -707,9 +731,11 @@
           <t>Langage des fleurs</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le langage des fleurs, la scabieuse symbolise la tristesse[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, la scabieuse symbolise la tristesse.
 </t>
         </is>
       </c>
